--- a/output/Total_time_range_data/河南省/开封市_学习考察.xlsx
+++ b/output/Total_time_range_data/河南省/开封市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1534 +436,1680 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>146</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>禹王台区领导赴驻马店驿城区考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2021-12-03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737143518425817088.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['12月1日，禹王台区委副书记、区长陶毓敏带队赴驻马店驿城区考察学习，区委副书记、三里堡街道党工委书记王帅，市发投集团党委副书记、总经理张力，区委常委、宣传部部长、副区长张利民，市发投集团监事会主席、纪检书记游鹏飞，副区长、菜市街道党工委书记刘铎，区三级调研员赵明及相关部门负责同志参加活动。驿城区委书记毕启民，区委常委、常务副区长赛睿，区人大常委会副主任李玉梅及驿城区有关部门负责人陪同考察。', '陶毓敏一行先后实地参观考察了驻马店驿城区中骏世界城、交通路下穿工程、火车站广场、农业路和人民街拆迁、停车楼等项目，详细了解项目的征收、规划、建设、运营等情况，并就有关问题现场座谈交流。', '座谈会上，赛睿对驻马店火车站片区开发的背景、资金筹措、房屋征收、项目建设等情况进行了详细介绍。双方就片区开发规划、土地利用、资金平衡等方面进行深入交流。', '毕启民对陶毓敏一行来驿考察学习表示热烈欢迎，希望双方以此为基础，未来有更多的互动交流，进一步加深了解，相互促进，共同推动两地经济社会高质量发展。', '陶毓敏表示，要充分借鉴驿城区在火车站片区开发、项目建设运营等方面的丰富经验，立足开封火车站现状和我区发展实际，加强沟通对接，高标准高质量高效率推动郑开城际铁路延长线和火车站片区综合开发改造工程，加快推动城市有机更新，实现经济效益、社会效益、生态效益和人文效益相统一。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>146</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>准确把握精神用心谋篇布局快速推进落实开封市自然资源和规划局全面学习贯彻开封市考察团外出考察学习活动和县处级干部学习贯彻党的十九届五中全会精神轮训班精神</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737176952770699264.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['准确把握精神 用心谋篇布局 快速推进落实&lt;br&gt;开封市自然资源和规划局全面学习贯彻&lt;br&gt;开封市考察团外出考察学习活动和县处级干部学习贯彻党的十九届五中全会精神轮训班精神 - 开封市人民政府网站', '准确把握精神 用心谋篇布局 快速推进落实 开封市自然资源和规划局全面学习贯彻 开封市考察团外出考察学习活动和县处级干部学习贯彻党的十九届五中全会精神轮训班精神', '近来，开封市自然资源和规划局紧扣市委市政府中心工作全力履职尽责。坚持把党史学习教育成效落实到工作中，以“坐不住”的紧迫感、“等不起”的责任感和“慢不得”的危机感，第一时间传达贯彻学习开封市考察团外出考察学习活动和县处级干部学习贯彻党的十九届五中全会精神轮训班精神，第一时间把学习成果转化为提升工作成效的具体举措，为民服务意识和水平不断增强，各项工作取得长足进展。', '立足规范建机制。重大任务专班化是市自然资源和规划局推动工作落实的重要机制和抓手，通过专班推进的方式，明确市委市政府关心关注的年度目标任务、工作计划和工作重点，聚焦跨部门、跨系统、跨领域的重点难点，聚焦综合性、关键性、联动性的卡点堵点，抓纲带目、突破重点、带动全局。目前，我局已成立20个专班，包括2个重大项目服务类专班，10个重要业务工作类专班，5个重大任务类专班。要求各类专班坚持“五有工作法”，即有领导小组、有工作实施方案、有职责任务分工、有工作推进机制、有督导考核办法。明确责任领导、责任单位、配合单位、具体责任人、完成时限和工作标准要求，形成“部署、指导、调度、督办、考核、约谈”工作闭环，做到有计划、有安排、有实施、有督导。', '勇于担当保“底线”。在全市卫片执法整改攻坚战中，我局牢固树立“底线”思维，坚决贯彻落实市委、市政府决策部署，全面提高政治站位，周密部署快速行动，完善机制强化问责，统筹协调各相关单位，坚决贯彻落实党中央用最严格制度、最严密法治保护自然资源的要求，昼夜奋战，勇于亮剑，全力冲刺，经过8天的攻坚克难，全市违法用地卫片图斑面积减少4千多亩，违法占用耕地面积比例降至6%，整改率全省排名第一位。为使农村乱占耕地建房整治工作有章可循、有错必纠、有责必问，形成工作长效机制，专门制定印发了《开封市农村乱占耕地建房整治工作考核办法》等制度文件，采取“长牙齿”的硬措施守牢耕地红线，以“零容忍”的态度坚决遏制新增违法用地，坚决打赢卫片执法整改攻坚战。', '多措并举创亮点。走深走实党史学习教育，积极开展“我为群众办实事”实践活动。聚焦企业和群众反映的突出问题，持续推进政府职能转变和优化营商环境，以“用户思维”重构土地、规划、不动产登记审批全流程，全力打造“审批事项更少、审批速度更快、政务服务更优、企业群众更满意”的营商环境，取得明显成效，在全市优化营商环境考核中位列第一方阵。制定出台《深化项目审批改革优化营商环境十条措施》，进一步精简审批事项、压缩审批时限、规范审批流程，受到省厅、市四大班子领导肯定和表扬。建立首席服务官制度，协调解决项目问题，为全市重大项目实行精准服务，打通服务企业“最后一公里”，受到企业一致好评。', '创新载体促长效。在全系统组织开展“五比一争”活动，召开誓师大会，全体人员在“五比一争”活动横幅上签名承诺，比忠诚、比学习、比担当、比作风、比实绩，争当自然资源出彩先锋。通过开展我为出彩开封做贡献演讲、人人讲党课、我为群众办实事、岗位技能比武等活动，创新载体，搭建平台，形成比学赶超的浓厚氛围，进一步激发工作热情，明确工作任务，催生工作效能，坚定想干事的信念，增强会干事的能力，提高干成事的素质，形成干事创业、勇争一流的正向激励效应，锻造一支拥有铁一般意志、铁一般担当、铁一般作风的资源规划铁军队伍，推动资源规划工作在高质量发展的道路上行稳致远。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>146</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>禹王台区领导带队到郑州万邦集团考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-07-09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737141462235389952.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['7月8日上午，禹王台区委常委、区委办主任韩书意带队到郑州万邦集团考察学习，副区长杨锦诚、区人大常委会副主任赵学岭、区三级调研员张东献及有关部门负责人陪同。', '考察组一行先后到万邦集团办公楼一楼沙盘、粮油干调市场、果蔬市场、精品园区、水产市场等进行考察学习。随后，与万邦集团董事长助理徐孟辉、综合办负责人王浩等在三楼会议室进行座谈。', '座谈会上，双方就万邦市场运营管理、商户扶持培育、税收缴纳、个转企等方面的先进做法和经验进行了深入交流。最后，韩书意对万邦的发展模式及发展成就给予了高度评价，并邀请万邦集团领导有机会到禹王台区指导工作，希望与万邦集团有更加深入的合作。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>146</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>杞县领导带领考察团到遂平县汝州市许昌市考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021-06-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737141082470522880.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['6月10至11日，杞县县长王红涛带领杞县考察团先后到遂平县、汝州市、许昌市考察学习城市建设和县域经济高质量发展。杞县领导魏培林、王怀军、李楠远、朱家波、赵海宏、关亮、陈勇、顾超、娄高、张利民、栗克难、刘龙、杨卫东、刘伟，杞县政府办、财政局、发改委、金城街道办事处等相关单位和乡镇（街道）负责人参加考察活动。', '考察期间，王红涛一行先后实地考察了遂平县的中花粮油、今麦郎产业园、汝河、玉带河治理；汝州市的智慧城市中心、城市中央公园、汝河国家湿地公园暨沙滩公园、汝瓷小镇；许昌市的规划展览馆、鹿鸣湖、中央公园、许继集团新能源产业园、开普检测研究院股份有限公司等项目，通过一路走一路看一路学，深入了解其集“科工农贸”为一体的现代食品加工产业体系建设、滨水绿廊水利景观工程建设、智慧城市精细化管理、制造业高质量发展、新兴产业发展、“四水同治”、生态文明建设、特色街区建设等情况。', '王红涛对遂平县、汝州市、许昌市给予这次考察活动的高度重视、精心准备并为杞县传授经验表示衷心感谢，同时强调各级各部门要对比找差距、对标找标准、对应找方法，转变思想，充分借鉴遂平县、汝州市、许昌市发展的有益经验，紧密结合杞县实际，充分发挥主导产业优势，提出有针对性、指导性、操作性的发展措施，推动产业实现多种业态创新，逐渐实现一、二、三产业融合发展，推动杞县经济高质量发展；要聚力推进百城提质建设、水生态文明建设，坚持“以水润城、以绿荫城、以文化城、以业兴城”，补齐城建短板提升管理水平，贯通城市水系，实现城区水系连通循环，将杞县真正打造成一个宜居宜业的魅力金杞。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>146</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>禹王台区领导带队赴长沙考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-07-19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737141579646541824.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['7月16日，禹王台区区长陶毓敏带队赴长沙亿达中国控股有限公司、航天科工集团航天凯天环保科技股份有限公司考察学习。副区长王大州，区政府办、区功能办和集聚区建投公司有关人员陪同考察。', '当日上午，陶毓敏一行首先来到长沙亿达中国控股有限公司亿达梅溪湖项目、亿达制造产业小镇项目参观考察。亿达公司副总裁李兵等陪同，双方就应急储备中心、园区开发运营、智慧化服务管理、先进制造业、智能终端产业等方面进行深入交流洽谈。', '陶毓敏表示，长沙亿达公司的园区管理运营模式值得借鉴，亿达公司在产业园建设、产业项目孵化、产城融合发展等方面经验丰富，下一步双方要深入推进应急指挥中心项目的合作，在禹王台区产城融合发展、园区开发运营、智慧园区建设等方面充分对接交流，加快推进禹王台区经济高质量发展。', '当日下午，陶毓敏一行来到中国航天科工集团航天凯天环保股份有限公司参观考察，航天凯天公司总裁姜晖等陪同。陶毓敏一行实地参观了污水处理中心智慧管理平台、智能制造车间、国家级实验室、军工展厅等。随后双方进行座谈交流，航天凯天总裁姜晖对陶毓敏一行表示欢迎，并对航天凯天公司的基本情况、业务范围、环保项目等进行了介绍。双方就精细化工产业集聚区环保治理、污水处理、环保服务等方面进行探讨，在项目合作模式、园区运营模式、企业全生命周期管理等方面进行深入交流。', '陶毓敏表示，禹王台区正立于加快经济建设的潮头、处在转型升级的重要时期，产业集聚区建设是全区的重点工作之一，也是禹王台区未来经济发展的重要阵地。产业集聚区主导产业明晰、产业优势突出，发展势头强劲，希望双方在集聚区环境生态治理、污水处理建设、环保服务管家等方面加强交流合作，切实提高集聚区环保治理能力和管理水平。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>146</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>示范区召开传达贯彻市考察团学习座谈精神暨区四大班子联席会议</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737141054133805056.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['示范区召开传达贯彻市考察团学习座谈精神暨区四大班子联席会议 - 开封市人民政府网站', '6月9日，城乡一体化示范区召开传达贯彻市考察团学习座谈精神暨区四大班子联席会议。全体县级领导干部、区各部委常务副职、区直各单位主要负责人、各乡（场）办党政主要负责人参会。区党工委书记肖文兴主持会议并讲话。 会议首先传达贯彻市考察团学习座谈精神，随后区深改办（督查局）孙理尚宣读示范区5月份在全市四大班子联席会上获上级表扬与批评及领导点评情况通报、4月份全区各乡（场）办重点工作考核情况通报。随后依据考核结果，第一名水稻乡负责人作先进发言，最后一名杏花营农场负责人作表态发言。 区级领导班子2021年联合推进工作机制12个领导小组负责人点评5月份工作、安排6月份重点事项。区人大工作联络处主任杨杰、区政协工作联络处主席张俊红进行全面点评发言。 区党工委副书记、管委会主任杨峰在点评工作的基础上着重就经济运行、高质量发展综合绩效考核、污染防治、重点项目建设、应急管理及文明城市创建工作等进行全面部署。 会议最后，区党工委书记肖文兴提出要求，一是关于5月份的排名和奖惩情况。上个月示范区排名第四，本月通过大家的努力，排名第三，得到了市里表扬，但我们跟前两名还有差距，要与排名靠前县区横向比较、科学分析、找准短板，保持并继续提升我们的名次。市通报奖励方面，我们跟前两名的差距主要在表彰数量上，要向兰考学习，做到百花齐放。 二是进一步争先补差，保位提名。好的要争先，目前12个县级领导小组已充分调动起来，但是区直单位和乡村两级的积极性还不够，存在上热中凉下冷的现象。所有单位一定要明确奖项，全力去争，乡村两级对上级和行业部门的安排要能承接住，自身还要主动争取，要坚决树立逢旗必扛、逢奖必争的意识，努力做到应争尽争；底线要守牢，主要是做好信访维稳、环境整治、舆情处置、问题楼盘等方面的工作。要想办法尽量不出问题，即使出了问题，也要迅速妥善解决。受到表扬的，要再接再厉，努力保持；批评的要查找原因，是干得不好、疏忽大意或是方法不对，要找准问题所在，全力解决；不表扬不批评的也要找原因，是重视度不够、工作不冒尖，还是沟通汇报不够，没有宣传上去。 三是关于下一步工作提出意见。5月底市领导带队到5个地市学习，优秀地市展示的大手笔、大格局、大视野都值得示范区学习，我们要利用自身优势发展项目，成为标杆。在干部任用上要因事寻人、因岗择人，选拔出业务能力强，敢作为敢担当的年轻干部。本周全省检查互评八项规定和党风廉政建设工作，各部门要做好自查，心存敬畏，严格遵守八项规定。示范区考评制度稳步推行，下阶段各局委也要进行排名，两办和督察局要制定好村（社区）排名考核办法，层层传达压力、通报到具体人和主管领导。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>146</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>开封市市场监督管理局赴汝州驻马店考察学习</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-06-07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737176878615404544.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['学先进要快、找差距要准。按照党史学习教育工作计划，结合工作实际，6月4日、5日，开封市市场监督管理系统在市市场监管局党组成员、副局长韩长奉的带领下，沿着开封市考察团的足迹赴全国县域经济高质量发展的标杆——汝州市进行考察，并赴驻马店市开展党史学习教育和市场监管业务工作交流学习活动，深入学习借鉴两市在食品安全监管、汝瓷原产地保护、小个专党建以及商事制度改革等方面的先进理念和工作经验。', '6月4日，考察团一行先后实地考察了汝州市智慧城市中心、城市中央公园、滨河公园、汝河国家湿地公园暨沙滩公园、汝瓷小镇、龙山集团、蔡庄公厕及立体停车场、万汇家宴城、青瓷博物馆等地，现场察看、深入了解汝州市高效优质的营商环境、公平竞争的市场环境、安全放心的消费环境、食品药品安全、产品质量安全、特种设备安全、质量强市、质量管理标准化体系建设、知识产权保护、品牌创建、非公党建、城市规划建设管理、城市更新、基础设施建设、产业发展、“四水同治”、生态文明建设、优秀传统文化创造性转化创新性发展等情况。', '6月5日，考察团一行赶赴驻马店市考察学习驻马店特色产业发展、文明城市创建、市场监督管理等情况，并踏寻红色足迹，参观确山竹沟革命烈士陵园和竹沟革命纪念馆，接受革命精神洗礼。在驻马店市尚品食品有限公司，考察团先后参观了公司生产车间各个工序、详细查看了生产车间监控中心、参观了产品展示大厅，重点询问了安全生产及“6S”管理的实施运行情况和监管落实情况。在竹沟革命烈士陵园，参观学习的党员干部向革命烈士纪念碑敬献花篮、向革命先烈默哀、鞠躬，并面对党旗举起右拳重温入党誓词。参观学习的党员干部怀着对烈士的敬颂，详细聆听讲解员对竹沟革命纪念馆一物一景的介绍，感叹新时代幸福美好生活来之不易。', '在深刻感受汝州市高水平规划、高标准发展的城市发展格局并赴红色革命基地开展党史学习教育之后，考察团进行了座谈交流，大家一致认为汝州市是全省、全国县域经济高质量发展的标杆，是值得认真学习的典范，要以此次考察为契机，深入学习发扬革命先烈的创新精神、担当精神，在学史明理、学史增信、学史崇德、学史力行中，进一步转变思路和理念，激发干劲、勇于担当、提升能力、团结拼搏，大力践行“我为群众办实事”要求，在全市市场监管系统中进一步形成以党的建设高质量推动发展高质量的生动局面，以优异成绩向建党一百周年献礼。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>146</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>尉氏县召开十二届县委第次常委会会议传达学习市四大班子考察团学习考察情况</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737140882205089792.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['尉氏县召开十二届县委第197次常委会会议&lt;br&gt;传达学习市四大班子考察团学习考察情况 - 开封市人民政府网站', '5月31日，尉氏县召开十二届县委第197次常委会会议，传达学习市四大班子考察团学习考察情况，并对全县贯彻落实工作进行具体安排部署，尉氏县委书记梁东雁主持会议并讲话。', '会上，各位常委根据分管工作，结合尉氏县实际情况，对各自学习情况进行了交流发言。大家一致认为，推动开封高质量跨越发展，一定要解放思想再出发，对标对表找差距，务实重干求突破，凝心聚力更出彩。通过这次集中学习，尉氏县常委班子进一步统一了思想、凝聚了共识、卯足了干劲，为开封更加出彩展示尉氏担当，贡献尉氏力量。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>146</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>开封市财政局召开专题会议传达开封市考察团考察学习情况</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737176835174998016.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['开封市财政局召开专题会议&lt;br&gt;传达开封市考察团考察学习情况 - 开封市人民政府网站', '近日，开封市财政局党组书记、局长孙国才召集科室（单位）负责人召开专题会议，传达开封市考察团赴洛阳市、平顶山市汝州市等地考察学习情况，研究贯彻落实措施。', '会上，孙国才谈了自己的考察体会。他指出，为期5天的集中考察，看到兄弟城市在城市规划建设管理、基础设施建设、产业发展、生态文明建设等方面处处体现着先进的理念观念、高标准的顶层设计、扎实的干部作风。兄弟地市经济社会发展近年来发生了巨大变化，高质量、高速度发展成绩单令人震撼和激励，为开封树立了榜样、提供了经验。', '孙国才强调，思路决定出路，解放思想、更新理念观念，是干好工作的第一步，也是最为关键的一步。全市财政系统要在今后的工作中进一步转变思路和理念，以思想的大解放促进工作的大进步。要加强政策学习研究，学习中央、省出台的最新政策，走在政策前面，从而积极抢抓机遇、创造机遇，在重大政策、重大项目和重大布局等方面得到国家和省更多支持。要进一步发扬担当作为的精气神，努力做到愿担当、敢担当、争担当、会担当。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>146</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>开封市城管局召开局长办公会扩大会贯彻落实四大班子考察学习成果</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737176817114324992.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['开封市城管局召开局长办公会（扩大会）贯彻落实四大班子考察学习成果 - 开封市人民政府网站', '为贯彻落实四大班子考察学习成果，5月31日下午，市城管局召开局长办公（扩大）会，局领导班子成员、局机关科室负责人、局属单位负责人参加会议。', '会上，局党组书记、局长孔羽同与会人员交流分享了考察学习情况，传达了市委书记高建军、市长李湘豫对我市城市建设管理、经济社会发展等方面的总体部署，就如何把学习成果转化为工作实效提出具体要求。', '会议分析了当前城市管理工作应该怎么看、怎么办、怎么干，起到了审视工作、明晰差距、校准举措、追赶超越的积极作用。', '会议提出，城市管理行业多、专业杂、摊点大、分布广，是一项综合的、复杂的、庞大的系统工程，要求城管系统要以时不待我、只争朝夕的精神，乘势而进、久久为功，对标对表、找出差距、学习经验、补齐短板，全面提升城市品质。', '会后，市城管局印发了《六月份城市管理工作要点》，对6月份工作进行了细化，做到前置任务进程、细化责任分工、确保任务落实，营造出干事创业的浓厚氛围。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>146</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>鼓楼区领导带队赴许昌市建安区考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1750791575562268672.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['近日，鼓楼区委常委、组织部部长李亚群带领相关单位负责同志赴许昌市建安区，就民宿发展及一站式办理服务、文商旅融合发展等方面开展考察学习。', '考察组一行实地查看了建安区市民之家“一件事一次办”窗口、了解帮办代办业务和使用小程序一件事在移动端办理的便利性。就“一件事一次办”的线上线下融合模式、一窗受理等情况进行了深入学习。', '随后，考察组一行前往鄢陵县生态旅游区对当地民宿规划建设和管理运营进行实地考察，了解当地民宿的主题特色、装修风格、功能布局，同时积极向民宿主理人和运营团队请教运营模式、服务理念、文化培育、品牌打造等。', '通过考察学习，吸收借鉴先进经验，为鼓楼区提升政务服务水平、整合优质文旅资源、做好品牌宣传推介、打造特色民宿等工作提供发展思路。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>146</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>开封市城管局考察学习共享单车管理工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737284859382243328.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为进一步提升开封市共享单车管理水平，学习借鉴其他地市单车管理好的经验做法，近日，开封市城管局党组成员、三级调研员刘伟带队赴新乡市、洛阳市考察学习共享单车管理工作。', '在新乡市城市管理局，新乡市城管局法规科科长魏丽全面介绍了当地共享单车的发展情况、制度文件、管理模式、考核方式等，刘伟对开封市共享单车管理工作进行了介绍，对新乡市城管局采取的“三码合一”的共享单车投放份额管控表示称赞，并与魏丽就工作中遇到的问题进行了充分的交流讨论。', '在洛阳市城市管理局城管执法支队，刘伟一行考察学习了洛阳市城管局的单车监控平台。该支队副支队长薛伟利详细分享了洛阳市城管局在共享单车管理方面的做法。刘伟对洛阳市城管局“企业管理+环卫协作”的模式及“蓝颜嗅探”技术运用进行了高度赞赏，并与薛伟利就共享单车管理工作进行了深入探讨。', '他山之石，可以攻玉。通过学习，开封市城管局深入了解了新乡市、洛阳市优秀的共享单车管理工作经验，为解决我市共享单车管理工作中的难点问题，进一步提高管理工作水平提供了借鉴。下一步，开封市城管局将结合我市实际情况，探索更加科学、智能、高效、精细的共享单车管理工作方式，让共享单车真正成为我市街道上靓丽的彩色风景线。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>146</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>开封市自然资源和规划局赴河北雄安新区管委会考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737284138742095872.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['近日,开封市自然资源和规划局组织杞县、祥符区、顺河区自然资源部门及矿产测绘科等相关人员赴河北雄安新区管委会，学习地热资源开发利用等工作。', '考察组与雄安新区自然资源和规划局有关人员，就地热资源勘查和开发利用、采矿权出让流程及相关材料、相关政策标准制定等情况进行座谈交流。', '座谈会后，考察组又前往市民服务中心实地参观了规划展示中心和南文营社区，学习雄安发展理念，感受雄安现代化城市气息。此次学习考察卓有成效，为破解地热矿权开发利用中的难题，推进矿权出让工作发展提供了动力。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>146</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>杞县领导赴兰考县开展考察学习活动</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737151638388645888.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['10月26日，杞县县委书记戴继田，县委常委、县委办公室主任谢震，副县长郭芳，县领导张传山及杞县有关单位负责人赴兰考县开展考察学习活动。兰考县委副书记、县长丁向东，县人大常委会主任陶长生，县委常委、县委办主任、统战部部长翟世胜陪同考察。', '考察团先后深入兰考县惠安街道高标准农田示范区、中原·家博园、惠安街道何寨村、红庙镇高标准农田示范区、音乐小镇等地，详细了解、认真学习兰考县在高标准农田建设、家居制造产业发展、乡村振兴、民族乐器制造产业发展等方面的先进经验和做法。', '戴继田指出，各级、各有关部门要以此次考察学习为契机，结合杞县实际，进一步找差距、补短板、促提升，认真研究解决杞县发展中的难点、堵点问题，切实把考察学习的成果转化为干事创业的强大动力，运用到推动杞县高质量发展的具体实践当中。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>146</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>开封市发展和改革委员会组织赴焦作市考察学习智慧金服平台建设</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737283965395705856.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['开封市发展和改革委员会组织赴焦作市考察学习智慧金服平台建设 - 开封市人民政府网站', '8月15日上午，由市发展改革委副主任路平带队，前往焦作市学习考察智慧金融服务平台项目，市金融局副局长王俊伟、人行开封中心支行副行长楚俊杰、市政务服务大数据局科长蒙晓江及市国投集团相关负责人一行11人参加了考察活动。', '考察团一行在焦作市智慧金融服务中心大厅先后观看了智慧金服宣传推介片和发展纪实，并由平台工作人员现场进行操作流程演示、交易成果展示等内容。', '座谈会上，焦作市发展改革委副主任王运洪对开封市考察团一行的到来表示热烈欢迎，随后焦作市金融局副局长刘志刚针对焦作市智慧金服的组织架构、数据归集等方面进行介绍，从政府政策支持角度阐述了该平台成功建成和良好运行的宝贵经验。', '最后，双方就金融服务平台建设的数据整合归集、分析建模、安全保障及平台管理模式和后续可持续运营的盈利模式等方面进行了深入细致的交流。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>146</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>开封市领导带队到新乡考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-07-08</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737170862523850752.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['7月7日，市委常委、组织部部长杨克俊带队到新乡考察学习，拓展工作思路，探索村集体经济增长路径，推动“五星”支部创建提质增效。', '杨克俊一行先后来到河南九豫全食品有限公司、河南亲热集团禾胜合食品有限公司、新乡市雨轩清真食品有限公司、河南三味真厨食品有限公司、中国（原阳）预制菜产业园C区，深入了解预制菜发展思路举措和产学研合作、配套设施建设、产品类别、生产工艺、质量管控、营销渠道等情况。随后，杨克俊一行到福宁集镇小吴庄村、原兴街道牛井村、太平镇菜吴村实地考察学习“五星”支部创建相关工作。', '关于发展预制菜产业、壮大集体经济、促进“五星”支部创建工作，杨克俊指出，一要成立工作专班。市委组织部牵头，会同工信、农业农村、商务等部门组建工作推进专班，形成合力、凝聚智慧。二要认真研究政策。学习借鉴新乡先进经验，结合开封实际，研究制定支持预制菜发展措施政策。三要建立健全“双绑”机制。以发展壮大预制菜产业为契机，全面推广“龙头企业+合作社+农户”模式，通过产业、就业、劳务、服务等多形式合作，带动群众增收致富，有效促进村集体经济发展，推动“五星”支部创建走深走实。（记者 马燕）']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>146</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>高建军带队到扬州市考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737170838054281216.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['7月5日至6日，市委书记高建军带队到扬州市考察学习古城保护利用、文旅文创融合发展、城市更新等工作先进经验。高建军强调，要深入贯彻落实习近平总书记关于历史文化保护传承的重要论述和指示批示精神，坚定文化自信、担当使命、奋发有为，赓续历史文脉、谱写当代华章，凝聚合力把开封打造成为黄河运河国际文化旅游目的地、都城型国家历史文化名城、高品质生态宜居活力古城。', '扬州市委副书记、代市长潘国强等扬州市领导参加考察活动。市领导张松文、邵华、黄腾、肖文兴、袁钢等参加考察活动。', '在扬州期间，高建军一行来到文汇阁、北护城河项目、宋夹城体育休闲公园、平山堂、瘦西湖清水活水工程、中国大运河博物馆、三湾湿地公园、江都水利枢纽工程、仁丰里历史文化街区、东关历史文化街区等地，深入了解扬州市古城保护利用、水生态保护、基础设施建设、文商旅融合发展、经济发展、城市规划建设管理、城市更新等情况。', '扬州已有2500多年的建城史，与大运河同生共长、兴衰相依。现有两座国家历史文化名城、4个中国历史文化名镇，大运河扬州段有6段河道、10个遗产点列入世界文化遗产名录，是大运河沿线城市之最。扬州古城（扬州城遗址）由明清历史城区和古城遗址区组成，面积约18.25平方公里，是国家级大遗址之一，是历史文化要素最集中、保护最完好的地区，是中国特有的历史城市动态演变、连续发展的典型代表。', '高建军强调，扬州市委、市政府高度重视古城保护工作，始终按照“护其貌、美其颜、扬其韵、铸其魂”的保护思路，不断深化古城保护理念，着力把历史文化资源“理出来、保起来、串起来、靓出来、活起来、传下来”，致力于打造“大运河文化带建设、历史文化名城保护和精致传统生活体验的扬州样板”，创造了许多值得认真学习借鉴的先进经验。要坚持保护为主、抢救第一，把古城保护好、利用好，加大重要遗址考古发掘力度，努力在中华文明探源工程上取得新进展、新突破。要坚持守正创新，活化历史，深入挖掘丰富历史文化资源，发挥开封古城历史文化遗产特色，突出做好宋东京城遗址、黄河文化相关遗产、大运河遗址、“城摞城”地下遗址等展示工作，让开封的历史文化遗产“活”起来，同时强化创意驱动、科技赋能，做优传统业态，培育新兴业态，引入高端业态，优化产品供给，提供多元化服务，加快特色化、集群化、品牌化发展，打造文旅文创高地。', '市直相关单位负责同志，城乡一体化示范区党工委和相关区委负责同志等参加考察。（记者 魏东柱）']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>146</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>高建军带队到绍兴市考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737170817867096064.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['7月4日至5日，市委书记高建军带队到绍兴市考察学习古城保护利用、文旅文创融合发展、城市更新等工作先进经验。高建军强调，要深入学习习近平总书记在文化传承发展座谈会上的重要讲话精神，认真贯彻落实2023全省文旅文创发展大会精神，坚持在保护中发展、在发展中保护，深入实施文旅强市战略，推动形成文旅文创深度融合新格局，让开封更加宜居宜业宜游，为推动文化繁荣、建设文化强国、建设中华民族现代文明尽责任、作贡献。', '绍兴市委书记温暖等绍兴市领导参加考察活动。市领导张松文、邵华、黄腾、肖文兴、袁钢等参加考察活动。', '在绍兴期间，高建军一行来到绍兴市城市展示馆、仓桥直街历史文化街区、鲁迅故里、迪荡湖城市综合公园、蔡元培广场（孑民图书馆）、蔡元培故居、阳明故里综合保护项目、徐渭故里历史文化街区等地，深入了解绍兴市历史文化、古城保护利用、文商旅融合发展、经济发展、城市规划建设管理、城市更新等情况。', '绍兴建城2500余年，迄今城址未变。在约9.09平方公里的绍兴古城范围内，有着8片历史文化街区、两个历史地段、9处国家级文保单位、7处省级文保单位、78处文保点与55处历史建筑，被称为“没有围墙的博物馆”。近年来，绍兴围绕古城“一城一桥三故里”总体布局，贯彻原汁原味的保护、原模原样的恢复、有根有据的重建、有脉有络的创新等大原则，先后实施了32个文商旅项目，总投资近300亿元，推动产、城、人相融互促，努力打造长三角最具文化标识度的城市。', '高建军强调，开封与绍兴历史相通，文脉相承，宋文化如同一条纽带将两地紧密地联系在一起。近年来，绍兴市坚持高标准谋划、高品质建设、高水平管理，逐步探索出了一套适合自身发展的古城保护利用模式，先进经验值得认真学习借鉴。开封要与绍兴在互学互鉴中携手共进，深化两地常态化对接合作，担负起新时代新的文化使命。要把历史文化保护利用作为一项重大政治任务来抓，深入挖掘开封历史文化的历史价值、时代价值，擦亮开封历史文化名城的金字招牌。要进一步科学处理好城市改造开发和历史文化名城保护的关系，通过历史遗产的有效保护与合理利用推动开封高质量发展，进一步提高开封在国内外的综合影响力，加快建设近悦远来的世界历史文化名都和国际文化旅游名城。', '市直相关单位负责同志，城乡一体化示范区党工委和各区委负责同志等参加考察。（记者 魏东柱）']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>146</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>高建军主持召开开封市赴绍兴扬州考察学习交流会</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737170840684109824.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['为深入贯彻2023全省文旅文创发展大会精神，在年中这个时间节点全面对标国内先进城市、全面检视开封高质量发展各项工作，7月4日起，市委书记高建军带队对同为国家历史文化名城的绍兴市、扬州市，以古城建设、文旅文创融合发展等为重点，进行了实地考察，行程满满，收获满满。7月6日晚，开封市赴绍兴、扬州考察学习交流会在扬州市召开，在3个多小时的时间里，大家结合所看、所学、所思谈感受，讲下一步该怎么干，如何把工作干得更好。高建军主持会议并讲话，强调要深入贯彻习近平总书记关于文化旅游工作的重要论述和视察河南重要讲话重要指示，认真落实省委、省政府决策部署，坚持制造立市和文旅强市双轮驱动，坚定信心，把握重点，狠抓落实，推动开封文旅文创融合走在前列，勇做全省新时代高质量发展开路先锋。', '高建军强调，要统一思想，坚定信心，立足开封独特优势推动文旅文创融合高质量发展。厚重的历史，灿烂的文化，丰厚的文化旅游资源是历史文化名城开封的独特优势和资源禀赋。高标准高质量做好古城保护利用工作，推动文旅文创融合高质量发展，是省委、省政府对开封提出的要求和寄予的厚望，也是开封坚持制造立市、文旅强市战略双向发力的必然要求。要把握重点，紧扣关键，准确把握文旅文创融合高质量发展的方法和路径。积极学习借鉴绍兴、扬州等地的先进经验，转变理念观念，勇于改革创新，进一步高水平谋划规划全市文旅文创融合高质量发展，科学制定目标、原则、战略、任务，推动整体工作量化细化具体化，明确时间节点、责任单位和责任人。推动“吃住行游购娱”延链补链强链，重点做好特色餐饮、酒店住宿、文化创意等工作，创新发展会议、会展、节会、赛事，推动文旅文创与科技、金融、城市更新、水利、文明创建等深度融合，强力实施一批重大文旅项目，做强做优做大文旅龙头企业，进一步擦亮开封文旅金字招牌。要加强领导，狠抓落实，全力以赴实现文旅文创融合高质量发展最佳效果。成立市委、市政府主要领导任组长的宋都古城文旅融合高质量发展领导小组，抽调精兵强将，组建工作专班，坚持系统观念，深入实施系列专项行动，压实责任，密切配合，协调联动，以文旅文创融合高质量发展不断为开封经济社会高质量发展注入强劲动力，加快开封高水平建设世界历史文化名都的步伐。', '与会市领导，城乡一体化示范区党工委和相关区委负责同志，市委宣传部相关负责同志，市文广旅、住建、城管、资源规划、水利、商务等部门负责同志，开封文投集团、宋都古城文化产业园区负责同志等作了发言。（记者 魏东柱）']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>146</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>李湘豫带队到西安考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737170365905674240.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['6月14日至15日，市长李湘豫带队，深入西安考察学习历史文化名城保护和传承、文旅行业管理以及文旅文创融合发展等工作的先进经验。他强调，要深入学习习近平总书记在文化传承发展座谈会上的重要讲话精神，坚定文化自信自强，深化古都互学互鉴，为在新的起点上继续推动文化繁荣、建设文化强国、建设中华民族现代文明作出开封贡献。', '西安与开封一样，历史文化底蕴深厚，文物遗址遗迹众多。李湘豫一行来到西安博物院、西安城墙永宁门、大明宫国家遗址公园等处，考察文化遗产保护利用工作。他指出，要学习借鉴西安经验，在留住古都“根”和“魂”的同时，在活化利用上下更大功夫，加强文化标识保护和沉浸式体验场景建设，既保护好文物文化遗产，又展示好历史文化名城肌理，推动文化“活”起来。', '易俗社文化街区是西安新打造的展示城市魅力的重要窗口和名片。回民街、永兴坊等各类特色小吃吸引着络绎不绝的游客。李湘豫一行详细了解了夜市、文化街区等经营模式、管理理念、特色小吃以及民俗文化的发掘保护和活化利用等工作，对标先进找差距，研究对策促提升。他指出，要下大力气抓好城市特色街区建设，引进更多的新业态、新场景，大力发展夜经济，提升城市烟火气。要壮大以创意为内核的文化产业，发展特色鲜明的全链条文旅业态。', '从博物馆之城到演艺之都，从打造文旅新场景新业态到夜游经济的全面激活，从推动文物保护科技创新到“互联网+中华文明”深入实施，从文旅融合“西安样板”到“西安经验”输出……近年来，西安市促进文化旅游深度融合，走出了一条独树一帜的文旅产业高质量发展之路。一路走，一路看，李湘豫对西安文旅融合发展的先进经验和创新模式表示赞赏，叮嘱各级各相关部门认真学习借鉴，尽快消化吸收，把学习成果转化为推动开封文旅产业高质量发展的火热实践。', '李湘豫强调，深入推进文旅文创融合发展，必须在开封历史文化的保护和传承中探索切入点，在服务中华民族伟大复兴的文化强国建设中探索契合点，在新时代新征程中探索历史文化古城复兴复振的实践路径。要全面落实党中央关于文旅工作的各项战略部署，更有效地推动中华优秀传统文化创造性转化、创新性发展，更有力地推进中国特色社会主义文化建设。要深入学习借鉴“西安经验”，统筹推进开封文旅强市建设，深度挖掘开封深厚的文化底蕴，全面提升文旅市场品质。要在打造开封文旅品牌等方面狠下功夫，既要充分发挥开封文旅独有优势，叫响“宋文化看开封”等靓丽名片，又要在形式和内容上大胆创新、敢试敢闯，更要注重特色文旅项目的孵化，不断丰富沉浸式、体验式旅游业态，夯实文旅产业柱石地位。', '副市长袁钢，龙亭区、鼓楼区、顺河回族区及市资源规划、住建、商务、文广旅等相关部门负责同志参加考察。（记者 叶森）']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>146</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>兰考县领导带队到浙江省安吉县考察学习美丽乡村建设工作</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737149511683579904.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['4月22日，市委常委、兰考县委书记陈维忠带队到浙江省安吉县考察学习美丽乡村建设工作。湖州市委常委、安吉县委书记杨卫东，安吉县副县长管永丰等陪同考察学习。', '陈维忠一行先后到安吉县天荒坪镇余村、灵峰街道大竹园村、上墅乡刘家塘村和小瘾半日村，通过实地看、听讲解等方式，详细了解当地美丽乡村建设工作中群众参与、财政资金筹措使用、运行维护激励机制、市场化运行模式等方面的先进经验做法。期间，双方还进行了座谈交流，杨卫东介绍了3.0版安吉美丽乡村建设实现路径。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>146</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>开封市政务服务和大数据管理局赴徐州市政务服务管理办公室考察学习</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://221.176.159.209:9001/szwfwhdsjglj/cgzdt/pc/content/content_1772540513847148544.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['开封市政务服务和大数据管理局赴徐州市政务服务管理办公室考察学习 - 开封市行政审批和政务信息管理局网站', '4月10日至11日，开封市政务服务和大数据管理局党组书记、局长张磊带队，赴江苏省徐州市考察学习打造城市“15分钟政务服务圈”、政务服务体系建设等工作。局机关有关科室同志、各县区局主要领导同志参加此次考察学习。', '考察组一行先后实地考察了徐州市政务服务中心、铜山区棠张镇便民服务中心、沙庄村便民服务站等，了解基层政务服务场所的建设标准、集中进驻事项、办公设施条件、综合窗口设置、现场服务配置等情况，并围绕基层政务服务示范点创建工作推进机制、标准化建设、政务服务“好差评”、政务服务体系建设等内容进行座谈交流。', '考察组认为，参观学习时间虽短，但内容丰富、具有很强的借鉴意义，是一次拓思之旅、启智之旅，有助于进一步解放思想、实干担当，切实将党的二十大决策部署和市委、市政府有关部署要求落到实处、结出硕果。张磊指出，通过学习考察，深切感受到我们基层政务服务能力和政务服务体系建设水平与徐州市相比还存在一定差距，下一步要认真梳理总结、吸收借鉴徐州的经验做法，积极推进我市便民服务中心（站）示范单位建设工作，以政务服务环境整体性提升为引领带动营商环境持续优化。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>146</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>开封市考察团赴驻马店市考察学习康复辅具租赁服务养老服务和殡葬改革工作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737282574325424128.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['开封市考察团赴驻马店市考察学习康复辅具租赁服务&lt;br&gt;养老服务和殡葬改革工作 - 开封市人民政府网站', '4月1日-2日，开封市人民政府二级巡视员王亚文带队，开封市民政局党组书记、局长李红权，局党组成员、副局长郭长周，开封国投集团党委副书记、总经理孙进旭及相关县区同志参加的考察学习小组，赴驻马店参加第41届中国国际康复辅助器具产业暨国际福祉机器博览会，利用这次机会考察学习了驻马店市康复辅具产业园区建设，康复辅具租赁进社区和殡葬改革等方面的先进经验和好的做法。', '考察组一行现场观摩了驻马店市开发区康复辅助产业园、金桥办事处综合养老服务中心、金桥康复辅具租赁服务站和国际会展中心，学习听取相关设计理念、规划建设及服务流程等先进工作经验，与驻马店市民政局负责领导进行了深入交流。', '返汴途中，考察人员纷纷发表此次学习考察的感受，结合各自实际提出了下步工作措施与打算。王亚文强调，一是市、县两级民政部门要共同努力，争取主要领导的重视；二是要进一步加大宣传力度，协调相关部门形成工作合力；三是要认真学习政策，开拓思路，把驻马店市好的措施落实到下一步工作中。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>146</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>开封市委组织部组织赴济源焦作考察学习五星支部创建工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737168866270027776.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['开封市委组织部组织赴济源、焦作考察学习“五星”支部创建工作 - 开封市人民政府网站', '4月7日至9日，市委常委、组织部部长杨克俊带领市“五星”支部创建专班相关负责人及各县区党委组织部门负责人赴济源、焦作考察学习“五星”支部创建工作。', '杨克俊一行先后来到济源市绿茵种苗有限责任公司和济源示范区承留镇花石村、王屋镇柏木洼村、王屋镇原庄村，分别学习了“双绑”机制、龙头企业培育、人居环境整治工作先进经验；在焦作市修武县郇封镇后雁门村、郇封镇大位村、七贤镇沙墙村、七贤镇韩庄村、七贤镇宰湾村、岸上小镇，实地考察乡村民宿发展、党群服务中心建设及使用情况。一路走、一路看，一路学习交流，收获满满。', '他山之石，可以攻玉。大家纷纷表示，通过这次考察学习，今后开展“五星”支部创建工作信心更加坚定、思路更加开阔，要把这次取到的“真经”学明白、用得好，借学习之势，行发展之为，进一步提升创建标准、创新工作举措、找准抓手载体，不断推进“五星”支部创建工作更上一层楼。（记者 马燕）']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>146</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>焦作市考察组莅汴考察学习应急管理工作</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737168901544124416.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['4月12日，焦作市副市长宗家桢率焦作市应急管理局考察组莅汴考察应急管理工作。市应急管理局党委书记、局长郑连成参加活动。', '考察组来到市应急管理局，了解和观看我市应急管理视频调度、防汛监控等系统演示，并与市应急管理局座谈交流，详细了解我市安全生产、应急管理体制机制建设、防灾减灾等工作经验做法。随后，考察组来到河南省综合救援基地（开封），现场了解应急救援装备和防汛救灾物资储备情况，并观看救援人员排涝训练。', '考察组对我市应急管理工作给予高度评价，表示将积极吸收我市先进工作经验和做法，促进焦作市应急管理工作再提升。双方表示，将继续加强两地交流学习，互相分享经验，共同推动应急管理事业高质量发展。（见习记者 李宇航 实习生 赵一融）']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>146</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>祥符区领导带队到厦门市考察学习</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-09-08</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737146764859056128.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['9月6日，祥符区委书记、开封市产城融合示范区党工委书记王彦涛带队到厦门市部分企业、乡村及片区开发项目考察学习，交流先进经验，区领导李鹏锋、潘波、张豪参加考察活动。', '王彦涛一行先后来到厦门科华数据公司、军营村及银城智谷园区片区开发项目，听取有关情况介绍，就产业发展、基层党建、片区开发等方面工作进行深入交流。每到一处，王彦涛都向企业简要介绍祥符区区情和发展优势，欢迎广大客商到祥符投资兴业，互利共赢。', '王彦涛指出，各有关部门在下一步工作中要对标先进找差距，借鉴好经验好做法，立足祥符区自身资源优势，找准路子统筹谋划，充分吸收厦门市招商引资、项目建设、机制改革、农村基层党建等方面的宝贵经验，推进重点工作开展、产业转型升级，搭建产业平台、扶持潜力企业、激发经济活力，推动城市有机更新，促进产、城、人深度融合发展。', '王彦涛强调，要在创新发展上做好文章，真正把“特强大”产业体系打造出来，集群化布局高端创新资源，与企业加强交流沟通，为企业创造良好发展环境，积极推动深层次、宽领域合作，引导优质资源集聚，吸引高端人才就业创业。要把学习考察成果转化为发展动力，通过学习交流，互通有无，共同发展，以高质量服务保障高质量项目建设，推动祥符经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>146</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>洛阳市民政局考察小组到开封考察学习殡葬服务园区建设</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737282359669334016.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['3月15日上午，洛阳市民政局副局长魏殿彬带队，一行7人赴开封市殡葬服务园区考察学习，市民政局党组成员、副局长郭长周等陪同。', '在市殡仪馆，地成佳境公司总经理陈孟琪向考察小组介绍了我市殡仪馆整体规划、设计理念、管理模式等，实地观看了市殡仪馆的各种功能布置和工作开展情况等。', '在市福安园公益性公墓，考察组对园区的设计、规划、功能设置进行了实地考察，就平稳推进殡葬改革工作，惠民殡葬全覆盖和突出殡葬基本公共服务管理新理念等方面的经验做法进行了讨论，对园区规划设计、资金投入、管理运营等方面进行了深入细致地交流。', '洛阳市民政局考察组一行表示，开封市殡葬服务园区的设计、建设方面的经验和成就很值得他们借鉴和学习，并表示以后要加强交流和沟通，在社会事务方面的工作上互相学习、促进提高。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>146</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>晋城市考察组莅汴考察学习医保垂直管理改革和长期护理保险工作</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-07-05</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737165135952519168.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['晋城市考察组莅汴考察学习医保垂直管理改革和长期护理保险工作 - 开封市人民政府网站', '7月3日至4日，晋城市副市长黄登宇一行，来我市考察学习医保垂直管理改革和长期护理保险工作。副市长王秋杰会见考察组一行。', '在我市组织召开的座谈会上，王秋杰首先代表市委、市政府对考察组一行的到来表示欢迎，并就我市医保垂直管理改革和长期护理保险工作等方面的经验做法及工作成效进行介绍。随后双方进行了积极的探讨交流。', '考察组对我市医保垂直管理改革和长期护理保险工作给予高度评价，认为我市工作力度大、举措实、效果好，许多好的经验和创新性做法值得学习和借鉴。希望在今后的工作中进一步加强沟通了解，深入推进交流合作，努力推动两地互相交流，更好更快发展。座谈会后，考察组还到我市福寿康养老服务公司进行了实地调研。（记者 王予杰）']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>146</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>尉氏县领导带领考察团赴南阳市淅川县考察学习教育教学工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-08-15</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737146394908860416.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['日前，尉氏县县长陈志刚带领考察团赴南阳市淅川县就教育教学工作进行考察交流学习，县委常委、纪委书记、监委主任焦世峰，副县长孟海彬，县领导王建平、卜喜军及县政府办、教育局、信访局相关人员参加考察。', '考察中，陈志刚一行先后来到淅川县第一幼儿园、淅川县思源实验学校、淅川县第一高级中学等地，通过听取汇报、实地参观、座谈交流等方式，详细了解了淅川县学校管理、资金投入、设施建设、教师队伍等情况，两县教育部门就如何提高教育教学质量和水平，进行深入交流探讨。', '陈志刚对淅川县的大力支持表示感谢，对淅川县教育教学成果予以高度称赞，并希望两地能够进一步加强沟通对接，增进交流，促进两地教育事业共同发展。陈志刚要求，考察组成员要以此次考察交流为契机，学习淅川县教育工作中的好经验、好做法，充分借鉴各学校先进办学模式、先进管理方法，拓宽思路、开阔视野，结合尉氏县实际抓好落实，努力推动全县教育教学水平迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>146</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>新安县融媒体中心到祥符区考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737148803169165312.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['3月6日，新安县委常委、宣传部部长、副县长赵宏锋带领新安县融媒体中心领导干部到祥符区对融媒体中心建设运营和新闻宣传工作进行考察学习，祥符区委常委、宣传部部长、副区长杜君陪同。', '在区融媒体中心，考察组参观了区演播中心、播控中心等建设运营情况，详细了解新闻采编流程、人员编制管理等具体业务情况。', '座谈会上，考察组一行认真听取了祥符区融媒体中心建设运营和新闻宣传业务等方面经验介绍，对融媒体中心在建设上、业务上的创新突破给予高度评价。考察团表示，此次交流学习对祥符融媒体建设及日常管理有了更深入的了解，新安县将把此次学到的先进经验和做法运用到以后工作中，希望多加强沟通交流，推动双方融媒体中心更好、更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>146</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>长垣市领导到开封市考察学习黄河生态廊道建设工作</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2021-03-17</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737175740990136320.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['3月16日，长垣市市委常委、副市长刘文君带队到开封市考察学习黄河生态廊道建设工作。市发展改革委党组成员、副主任门大勇出席调研活动，开封第一河务局局长潘佳良陪同调研。', '调研组一行先来到南浦码头，听取了黑岗口引黄调蓄水库整体建设情况汇报，观看了开封市黄河流域生态保护和高质量发展工作汇报片，并沿途察看了西干渠、红枫大道、樱花园、生态廊道建设情况，详细了解了驿站建设情况、单车驿站功能。随后在黑岗口黄河河势观测台察看了治黄文化保护传承弘扬情况。长垣市市委常委、副市长刘文君高度称赞开封市黄河流域生态保护和高质量发展工作，并就好的工作经验做法进行了探讨学习。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>146</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>开封市自然资源和规划局到河南省测绘工程院考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2021-01-29</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737175180794699776.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为推动测绘地理信息与自然资源各项业务深度融合，更好的践行测绘地理信息“两服务两支撑”要求，推动测绘地理信息在各行业的应用，破解“联合测绘”改革难题，1月29日，开封市自然资源和规划局四级调研员程寿贞带队到河南省测绘工程院考察学习。', '座谈会上，开封市自然资源和规划局一行首先对省测绘工程院对开封市全域土地综合整治工作的支持表示感谢，就如何更好的践行“两服务两支撑”，推动测绘地理信息在各行业的应用，发挥北斗导航定位基准站的作用，促进“联合测绘”改革和国土空间信息平台的建设进行了交流。省工程院介绍了“联合测绘”工作推进情况，列举了测绘地理信息在其他行业应用的具体案例，介绍了国土空间信息平台开发情况和“北斗”卫星定位系统最新应用产品等。', '会后，开封市自然资源和规划局一行到省测绘工程院地理信息中心、空间大数据应用中心、省（CORS）管理中心参观，并听取了“北斗+5G”赋能高精度示范应用—120救护车应急管理系统工作和河南省国土空间规划“一张图”监督信息系统的报告。', '此次考察学习，深化了对“联合测绘”改革的理解，拓展了测绘地理信息服务社会的方向，为更好的践行测绘地理信息“两服务两支撑”要求提供了新思路。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>146</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>李湘豫带队到成都市考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2021-05-19</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737158633837600768.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['九天开出一成都，万户千门入画图。5月17日至18日，市长李湘豫带队来到成都市，深入贯彻落实习近平总书记关于城市工作的重要讲话精神，就城市更新等工作进行考察学习，持续提升城市品位、增进群众福祉，推动我市城市更新工作争当标杆示范。成都市副市长刘玉泉陪同考察。 国开行河南省分行副行长甘伟红、刘建梅，副市长黄玉国参加考察。 李湘豫一行先后来到望平坊、下涧槽社区、中车·共享城、北门里·爱情巷、宽窄巷子等处实地考察，并来到成都规划馆，了解成都市总体规划及“一心两翼三轴多中心”市域网络化空间结构。随后，李湘豫来到成都市住建局，就重点工作进行交流，深入了解成都市推动城市更新“一个专项规划、一套政策法规体系、一个工作推进机制、一个基金、一个融资模式”等“五个一”模式。 望平坊是猛追湾市民休闲区一期工程的示范区，以“工业文明和现代时尚交相辉映，美食文化与文创产业共生共融”为打造理念，打造“最成都·文创美食合集”，进一步丰富夜游锦江消费新场景。下涧槽社区通过整合资源，精心打造三大功能空间和24处邻里交往空间，从“人、文、治、地、景、产”六大维度，构建社会企业孵化新平台、社区生活新场景、社区服务新业态、社区文化新生态，探索基层社会治理新模式。中车·共享城是主城首个以文化为基调，涵盖商业、生态、教育、医疗、立体交通为一体的核心城区优质人居微城市。北门里·爱情巷将以前单纯的建筑立面改变为以消费场景营造和产业植入为主导的特色街区，植入浪漫的文态业态，展现以爱情文化为主题，以夜间经济为主业，彰显“市井味、时尚范”的成都首条爱情文化主题街区。宽窄巷子是北方胡同文化与川西民居四合院融为一体的建筑风格在中国南方城市的“孤本”，是成都平原宜居休闲与时尚生活的最典型代表和中国首个院落式情景消费生活体验最原真的标本。一路走，一路看，大家在一个个成功运营的项目中开阔了视野、拓宽了思路。 李湘豫指出，城市更新“成都模式”实事求是、实实在在，取得了实绩实效，充分体现了习近平总书记对成都市的重要指示要求，是成都市建设践行新发展理念的公园城市示范区的具体实践；充分体现了以人民为中心，打造了共建共治共享格局，增强了群众的获得感幸福感；充分体现了高质量发展特别是可持续发展的要求，以政府主导、市场主体、商业逻辑，投融资规建管一体化推进片区综合开发，实现了更新单元经济价值、社会价值与生态价值的全面提升。同时，做好了有为政府和有效市场“两个结合”和生态、生产、生活“三生融合”。成都市的探索实践走在了全国前列，为开封做好城市更新工作提供了有益借鉴，为我们进一步明确了战略方向、提供了操作指引。大家要进一步解放思想、学习经验、创新工作，坚持新发展理念，突出共建共享、策划谋划、谋动联动，推动城市更新工作走在全省前列。 在蓉期间，李湘豫还拜会了国开行四川省分行相关领导，就做好城市更新工作进行了深入交流。 市政府办公室、市政府督查局、兰考县、城乡一体化示范区、鼓楼区、龙亭区、禹王台区、顺河回族区、市自然资源和规划局、市住建局、市财政局及文投集团负责同志等参加活动。（记者 叶森）']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>146</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>洛阳市农业农村局来我市考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2021-02-02</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737175206950379520.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['2月1日，洛阳市农业农村局党组成员、二级调研员阮祥鸣带领洛阳市乡村振兴考察组一行11人来我市考察学习乡村振兴工作，市农业农村局二级调研员陈斌陪同考察。', '考察组一行先后到祥符区西姜寨乡思嘉民宿、青创基地、农业嘉年华、乐田农场、智慧农业科技示范园、乡村振兴大学堂、建业大食堂，朱仙镇镇区，鼓楼区仙人庄办事处余店村，祥符区扶贫展销中心等地实地查看，并在乡村振兴大学堂召开座谈会。会上，考察组一行对我市乡村振兴“1+6”示范带建设，以及乡村规划编制、“百千工程”、社会资本参与乡村振兴等工作措施、方法、经验等进行深入了解，对我市取得成效给予高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>146</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>山东省聊城市委政法委副书记杨国强一行赴我市考察学习</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2020-08-12</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/gzdt102/pc/content/content_1737108604187877376.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['8月11日，山东省聊城市委政法委副书记杨国强一行10人赴我考察学习市域社会治理现代化工作，特别是基层社会治理“一中心四平台”作用发挥及“雪亮工程”建设。开封市委政法委副书记张振国陪同观摩。', '考察团一行到尉氏县张市镇综合指挥室、两湖街道综合指挥室，对我市基层社会治理“一中心四平台”机制建设和治理效能进行了考察学习。', '在示范区杏花营农场、杏花营镇，考察团参观了服务大厅、分析研判室、心理咨询室等，听取相关负责人介绍，并对“雪亮工程”建设情况，“一中心四平台”事件流转、事件办结等情况进行了提问，了解了“双向吹哨”机制。', '最后，观摩了示范区综合指挥中心，通过PPT讲解、现场连线、雪亮工程功能演示，介绍了“一中心四平台”的建设打破了传统自上而下的派单式模式，将基层社会治理的工作重点和重心下移，充分激发基层活力，在基层社会治理方面发挥了重要作用。杨国强副书记对我市“一中心四平台”工作和“雪亮工程”建设高度评价，并表示此行学习收获颇多。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>146</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>开封市民政局赴宁陵县考察学习婚俗改革工作</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2020-07-31</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737172687687819264.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['7月30日，开封市民政局副局长郭长周，禹王台区委常委、组织部部长潘磊带领相关单位到商丘市宁陵县考察学习婚俗改革工作。', '考察结束时，郭长周指出，宁陵县在移风易俗管理体制机制创新和发展等方面有许多亮点，值得我们深入学习借鉴，这次考察学习，既开阔了眼界，又增长了见识，启迪了思路，回去之后，要迅速行动，齐心合力，积极谋划，加快推动婚俗改革试点建设，推进移风易俗，促进乡风文明。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>146</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>开封市粮食和物资储备局赴漯河市考察学习订单农业开展情况</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020-07-11</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737172205422551040.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['7月9日，市粮食和物资储备局党组成员、副局长李培健带队赴漯河市考察学习订单农业开展情况。漯河市粮食和物资储备局相关领导及有关企业负责人陪同调研。', '在中粮集团（漯河）生产基地，考察组一行同漯河中粮就发展优质小麦订单种植及收购进行了深入交流。在舞阳市金丰农业公社，总经理赵鹏详细介绍了公司发展订单农业的主要做法，总结了发展历程中的得与失，并对发展订单种植进行了展望，考察组一行收获颇多。', '开展订单农业种植及收购是开封粮食产业着眼未来发展，以一、三产业促进一产融合发展，打造供应链、延伸产业链、提升价值链的一次重要举措，也是服务于开封粮食和农业实现高质量发展的责任，开展订单农业，必将对全市粮食产业整体实力的发展和提升产生积极的促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>146</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>禹王台区党政考察团赴山西泽州县和焦作温县考察学习文化旅游和乡村振兴工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-07-07</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737137722287759360.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['禹王台区党政考察团赴山西泽州县和焦作温县考察学习文化旅游和乡村振兴工作 - 开封市人民政府网站', '为贯彻落实全市领导干部会议和旅游大会会议精神，7月4日，禹王台区委书记黄腾带领该区党政考察团到山西省晋城市泽州县司徒小镇和焦作市温县太极小镇，就文化旅游和乡村振兴工作进行考察学习。泽州县委书记高喜全，县委常委、县委组织部长张韶华、温县人大常委会主任胡义胜、县政协主席郑爱珍等分别陪同考察。', '当日上午，区党政考察团先后来到泽州县司徒小镇六尺巷、素宴席、儿童研学基地、老年大学康养基地、晋商家宴、非物质文化遗产体验园等处进行实地参观，并对七星党建与七村联建模式进行考察。并同司徒村支书兼主任、司徒小镇董事长、七村联建山西省农林文旅康产融发展示范区发起人及党总支常务书记周小明进行座谈。座谈会上，周小明详细介绍了司徒小镇从无到有、从小到大、从大到强、从强到专的发展历程并就小镇建设和发展问题交流了经验。随后，考察团一行观看了司徒村农民，自编、自导、自演的实景演出《又见老山西》，观看演出后大家纷纷表示，回去以后，要将看到的、听到的、学到的融入到我区文化旅游具体实践中，并且要以此次考察学习为契机，加强沟通交流，积极寻求合作。', '随后，区党政考察团来到焦作市温县，先后到陈家沟太极拳祖祠、太极拳博物馆、太极拳学院等地进行实地考察，观看了太极拳发源地温县专题片和太极拳表演，详细了解太极拳的起源、衍生和发展历程。大家一致认为，温县在文旅产业发展方面积累了宝贵的经验，将认真学习借鉴，加快繁塔、禹王台公园、红洋楼等保护、开发、利用。', '在考察中，黄腾指出，要党建引领，示范带动做带头人。司徒精神鼓舞我们，要做有思想、不怕困难的带头人，敢想敢干，有拼劲、有韧劲，努力做好每一件想干的事。要因地制宜，制定切实可行规划。以党建为引领，高站位、高标准谋划规划，充分利用禹王台区的丰富资源，串点成线，着力打造“一核一轴三带多点全域”的旅游格局。要千方百计，带动乡村发展。学习七村联建模式，探索一条党建、交通、产业、文化等“联建共享”的发展新模式，建设具有禹王台独特魅力的美丽乡村。', '考察团成员纷纷表示，此次之行收获颇丰，既开阔了眼界，又增长了见识，启迪了思路，同时也看到了差距，学到了经验，进一步坚定了加快禹王台区文旅产业发展和乡村振兴工作的信心和决心。大家一致认为，泽州和温县在基层党建、文旅产业、乡村振兴、农村管理体制机制创新、特色产业发展、示范村连片推进等方面的许多亮点，均值得我们好好学习借鉴，我们一定要认真学习，总结经验，因地制宜，迅速行动，齐心合力，积极谋划，加快推动禹王台区文化旅游和乡村振兴高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>146</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>开封市自然资源和规划局到许昌市考察学习节约集约用地工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2020-07-10</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737172171872313344.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['7月8日，开封市自然资源和规划局党组书记薛兆武带队到许昌市考察学习节约集约用地工作，许昌市自然资源和规划局党组书记、局长刘林波陪同考察。', '考察组一行实地参观了许昌市城市规划馆、许昌市黄河鲲鹏服务器和PC机生产基地等，对许昌市节约集约用地管理现状进行了全面了解，随后，在许昌市自然资源和规划局召开座谈会。座谈会上，许昌市局有关负责同志详细介绍了许昌市在城镇低效用地再开发、百园节地增效等方面的宝贵经验，双方就处置低效闲置土地、工业用地弹性出让、建设用地指标保障、不动产确权登记等工作进行了全面深入的交流。', '薛兆武表示，许昌市在节约集约用地方面探索了宝贵的经验，百园节地增效、弹性出让、标准地等创新工作走在了全省前列，这次来许昌进行考察，受益匪浅。开封市局将学习好许昌经验，进一步加压驱动，提高开封市节约集约用地水平，对许昌市局毫无保留的经验传授表示衷心的感谢，两市自然资源部门要进一步深化沟通，加强交流，推动自然资源管理能力和管理水平共同提升。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>146</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>民进开封市委举行年度组织工作暨参政党履职能力提升考察学习活动</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2020-07-20</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737151266299355136.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['民进开封市委举行2020年度组织工作暨参政党履职能力提升考察学习活动 - 开封市人民政府网站', '7月17日，民进开封市委副主委蒋中兴、李谦率领市委委员，各支部主委、副主委、委员及骨干会员80余人赴兰考焦裕禄同志纪念馆举行2020年度组织工作暨参政党履职能力提升考察学习活动。 活动中，考察组一行向焦裕禄烈士墓敬献花篮。在焦裕禄墓前，考察组举行了隆重的瞻仰仪式，全体会员面向焦裕禄烈士墓三鞠躬。在焦裕禄同志纪念馆，大家认真观看展厅里的展品和图片，仔细聆听讲解员对焦裕禄同志生平事迹的介绍，学习焦裕禄带领兰考人民战风沙、斗内涝、治盐碱的感人事迹，深入学习焦裕禄同志迎难而上、敢于担当的品格。 学员一致表示，通过本次参观学习，深受教育和启发，在今后的工作中要充分发扬焦裕禄精神，提高自身修养，把业务素质锻炼和政治修养锻炼紧密结合起来，以忠诚干净担当的不懈追求履行参政党的职责使命。（记者 马燕 实习生 康方萌）']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>146</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>龙亭区党政考察团前往郑州市惠济区和郑东新区考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-06-08</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737137449221791744.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['6月5日，龙亭区党政考察团前往郑州市惠济区和郑东新区深入考察学习沿黄流域生态保护和高质量发展及文商旅产业发展先进经验做法。龙亭区委副书记林新柱，区宣传部长陈庆勇，区委办主任李伟杰，常务副区长陈广升，区政法委书记李磊，区纪委书记、监委代主任王海燕，区政府党组成员刘伟，副区长王红霞，龙亭公安分局局长吕杰及相关部门主要负责人等30余人参加此次考察学习。', '考察团在郑州市惠济区委副书记李伟光，惠济区委办主任张士先，惠济区副区长郭剑锋的陪同下，先后参观了荥泽古城文旅融合项目、车览黄河滩地公园（生态景观慢行系统）、中原花卉高科技博览园3个项目。在郑东新区党工委副书记马安庄的陪同下，先后参观了郑东新区规划展览馆、河南艺术中心、龙湖金融岛展厅、大河村遗址博物馆4个项目。参观过程中，现场听取各项目介绍，并详细询问项目定位、发展前景、收益、税收等具体情况。', '此次考察学习是为了深入贯彻落实习近平总书记关于县域治理“三起来”重要指示精神和全省县域经济高质量发展工作会议精神，通过观摩学习找出差距，借鉴经验，认准方向，解放思想，增强干劲，为龙亭区经济高质量发展整体谋划，打造县域经济竞争新优势注入新理念、新思想。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>146</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>开封市领导带队赴浙江金华等地考察学习医保改革工作</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020-06-05</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/bmdt/pc/content/content_1737170761579536384.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['为借鉴学习浙江省金华市等地医保领域改革方面的先进经验，推动我市医保支付方式改革和集中招采工作取得突破性进展，6月4日，市人大常委会主任阎红心、副市长王玲带领医保、卫健、财政等相关职能部门负责人赴浙江省金华市和上海市等地学习，主要围绕深化医保支付方式改革，集中招采和医疗信息化建设等内容进行了深入细致的考察学习。', '金华市被列为“病组点数法医保支付方式改革”国家试点，近来在“医药集中带量采购”和“医共体医保支付方式改革”方面成绩亮眼。有很多值得我市学习、借鉴的地方，特别是以DRG支付方式改革和医药集中带量采购方面，走出了符合金华实际的医改新路子，给考察团成员留下深刻印象。', '市领导在考察中强调，要认真消化吸收先进地区的经验，解放思想、提升境界、创新举措，力争我市医保工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>146</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>鼓楼区考察团赴洛阳市考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2020-06-08</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737137451126005760.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平总书记关于县域治理“三起来”重要指示精神和全省县域经济高质量发展工作会议精神，6月5日，鼓楼区考察团赴洛阳市老城区、洛龙区观摩学习文商旅融合发展、非遗活化传承、老旧厂房改造利用、城中村改造、生态廊道建设等方面的创新举措和经验做法。', '鼓楼区区长戴继田，区人大常委会主任吴瑞芳、区政协主席雷延军等区四大班子有关领导、区直及有关部委主要负责人和各街道党工委书记参加活动。', '洛阳市老城区委书记牛刚、区委副书记、区长夏磊，洛阳市洛龙区委书记张玉杰、区委副书记、代区长韩建军及有关领导同志参加考察交流活动。', '戴继田一行在洛邑古城，观看了老城区的推介宣传片，实地考察了文峰塔、金元城墙等历史遗存及唐白瓷、唐宝斋、汝阳刘等非物质文化遗产业态。随后，又到天心文化产业园考察文商旅融合项目建设运营情况。通过两个项目的实地观摩学习，对老城区致力打造国际人文交往中心核心区，坚持“政府引导、市场主导”，打造“古都夜八点”文旅消费品牌，引领带动消费提力行动取得的实效给予肯定。', '在洛龙区召开的城市建设发展专题座谈会上，就政策运用、组织构架、破解资金难题、实战经验等方面双方进行深入交流，期间还到伊水游园、李屯村整村拆迁、隋唐里坊区入苑游园等项目实地观摩学习。观摩团纷纷表示，洛龙区深入践行习近平生态文明思想，推进黄河流域生态保护和高质量发展，进一步提高土地利用率，改善居民生活环境，对城乡综合治理所作出的突出成绩和创新思路谋发展的做法点赞。', '鼓楼区将以此次洛阳之行为契机，借经验、找差距、补短板、谋发展。抢抓黄河流域生态保护和高质量发展、大运河文化带建设、宋都古城保护与修缮等国家、省市重大战略机遇，按照市委“西强、北美、东兴、南融、中保”的城市空间总体布局，结合鼓楼发展定位，深入谋划，立稳支撑点，找准增长点，抓实出彩点，作好鼓楼发展“三篇文章”。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>146</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>开封市赴浙江上海等地考察学习卫健医保改革等工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-06-08</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/zwyw/pc/content/content_1737150395750588416.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['6月2日至6日，市人大常委会主任阎红心，副市长王玲，市政协副主席、市卫健委主任刘述荣，带领由医保、卫健、财政等相关职能部门负责人组成的卫生健康和医疗保障工作学习考察团，赴浙江、上海等地，主要围绕医联体建设、基本公共卫生服务、家庭医生签约，以及深化医保支付方式改革、集中招采和医疗信息化建设等方面进行了深入细致的考察学习。 考察团在杭州市考察了医联体建设、基本公共卫生服务、家庭医生签约以及智慧医疗等方面工作。金华市被列为“病组点数法医保支付方式改革”国家试点，其DRG支付方式改革和医药集中带量采购方面，给考察团成员留下深刻印象。在南通市，考察团参观考察了长护照护中心、照护服务公司等。在上海市，考察团考察了长期护理保险实践、失能评估标准等方面工作。市领导在考察中强调，要认真消化吸收先进地区的经验，解放思想、提升境界、创新举措，力争我市卫健和医保工作再上新台阶。（记者 王予杰）']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>146</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>高建军赴上海考察学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-06-22</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xwtt/pc/content/content_1737119860554768384.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['6月18日至19日，市长高建军赴上海考察学习，深入贯彻习近平总书记在上海考察时的重要讲话精神，认真学习上海在推进乡村振兴、社会治理现代化、历史文化街区保护利用、现代公共文化服务体系建设等方面的先进经验，对标一流找差距，学习标杆促提升，不断创新工作思路、提高工作水平，奋力谱写新时代中原更加出彩开封绚丽篇章。 上海市金山区朱泾镇待泾村的“花开海上”生态园，月月皆开花、四季都有景，成为融科普、展示、观赏游览为一体的赏花主题公园，奏响了乡村振兴“产业兴旺”舞曲，拓宽了农民增收渠道，让村民打工有薪金、土地流转有租金、门票收益有股金。高建军详细了解了生态园规划、建设、运营情况，并指出，要学习先进经验，突出产业带动，实现“农文旅融合发展”和“现代农业产业园建设”双轮驱动，推进我市乡村振兴“1+6”示范带“三链同构”“三产融合”。 让政务服务像“网购”一样方便，是上海的目标。在上海市大数据中心，高建军认真听取了上海市“一网通办”建设情况介绍，观看了宣传片。他指出，要充分认识城市治理的重要意义，对标上海，围绕“政务服务一网通办”“城市运行一网统管”，运用人工智能、大数据、云计算等现代信息技术，持续深化“放管服”改革，不断优化流程，持续提升政务服务质量和效率，实现政务服务从政府供给导向转变为企业群众需求导向，扎实做好“六稳”工作，落实“六保”任务，最大限度便企利民。考察中，高建军沿途了解了城市环境综合治理情况。他指出，我们要坚持以人民为中心，统筹谋划规划建设管理、生产生活生态、保障改善民生等各项工作，走内涵式、集约型、绿色化的高质量发展路子，努力创造宜业、宜居、宜乐、宜游的良好环境。 作为上海原汁原味保留老城厢风貌的区域，豫园正日益成为海派老字号创新集聚区、中华传统文化时尚演绎区。高建军详细了解了豫园风貌保护、业态布局和经营情况。他指出，我们要妥善处理好保护和发展的关系，注重延续城市历史文脉，保留城市历史文化记忆。同时，加强顶层设计，进一步完善开封宋都古城保护与修缮规划，让重点更突出、脉络更清晰、工作更稳健，坚持“五个全域”，用绣花功夫做好古城的保护、建设和发展。 亭台楼阁、白墙黛瓦、连廊漏窗、曲径通幽，走进上海博物馆第一展厅，仿佛步入一座典雅的江南园林，“春风千里——江南文化艺术展”特展吸引了众人预约参观。高建军了解了特展布展情况，并指出，我们要突出时代性、创新性和开放性，加强公共文化服务体系建设；不断提高策展水平，提升公共服务能力；充分发挥民间收藏作用，让广大市民成为公共文化服务的参与者、建设者，不断丰富城市精神文化内涵。 上市公司GQY视讯是国家级高新技术企业，2019年6月，公司实际控制人变更为开封市政府，依托市政府及控股股东的资源支持，公司聚焦主业专业视讯，打造全品类视讯产品集成商。高建军来到GQY视讯上海总部，听取了公司发展总体情况介绍，对其发展成绩给予充分肯定，并表示，开封市委、市政府将深化国资国企改革，优化资源配置，全力支持GQY视讯做大做强。希望GQY视讯加强顶层设计，锐意改革创新，加快人才集聚，抢占市场先机，不断提高企业核心竞争力，立足新起点、开启新征程、实现新跨越。（记者 叶森）']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>146</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>杞县领导赴兰考县考察学习</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2020-04-07</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737137014670925824.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['4月5日，杞县县委书记韩治群、代县长王红涛带领该县部分党政班子成员、乡镇党委书记及相关单位负责人，赴兰考县考察学习脱贫攻坚、国土绿化、基层党建、乡村振兴、县域经济发展等工作经验和成果。', '韩治群一行先后来到兰考县三义寨乡白云山村蔬菜大棚，三义寨乡付楼村党群服务中心、脱贫户郝金刚家中及东坝头黄河湾乡村振兴示范区等地，考察学习脱贫产业发展、“两貌”提升、基层党建、国土绿化、强县和富民产业体系绿色畜牧产业体系构建土地综合利用等项工作；听取相关负责人对开展各项工作的情况介绍，详细了解各项工作中好的经验和做法。', '韩治群要求杞县各级、各部门要结合自身实际情况，积极贯彻落实习近平总书记县域治理“三起来”要求，让“三起来”早日在杞县落地开花；要强化各项帮扶政策的落实，做好正面的引导工作，大力发展扶贫产业，提升贫困户自主“造血”能力；要强化党员“看齐意识”，学习兰考县基层党组织的先锋引领作用，营造“人人都要干、人人抢着干”的氛围，为决战决胜脱贫攻坚提供强力支撑。（记者 汪少冲）']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>146</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>开封市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>鼓楼区领导到通许县考察学习乡村振兴工作</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.kaifeng.gov.cn/kfsrmzfwz/xqdt/pc/content/content_1737136875424227328.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['3月13日下午，鼓楼区委书记耿国庆一行到通许县冯庄乡和厉庄乡，实地考察学习各乡设施农业发展情况。区领导李春阳、朱永辉，区农业农村局和仙人庄办事处主要负责人等参加考察。', '在冯庄乡陈庄村，耿国庆一行深入番茄蔬菜等特色种植基地，与乡、村两级干部和产业带头人面对面交流，详细了解土地流转、资金投入、农产品产销等工作的有益经验。在厉庄乡产业扶贫基地，耿国庆一行先后参观了草莓种植园、绿博园等设施，实地考察采摘农业、观光农业等现代农业产业发展模式。', '为推动鼓楼区现代农业产业发展，耿国庆指出，要结合实际谋划，在走出去学习先进经验的同时，要结合鼓楼区实际，突出鼓楼区特色和优势，探索适合鼓楼区的产业模式，大力发展城郊型农业。要明确发展重点，当前，在推动冬枣、核桃等特色种植的同时，重点发展设施农业，多措并举推广西瓜、蔬菜大棚种植，探索采摘农业和观光农业发展模式。 还要加大对接力度，加强与国投集团对接，推动项目尽快落地。要推进与中国农业大学和河南农科院等专业团队的合作，引进专业经营管理团队，不断提升现代农业产业发展水平。']</t>
         </is>
